--- a/Farwater_ZRS/R_calc_for_Farwater/Data/Средние показатели облия каменистая литораль.xlsx
+++ b/Farwater_ZRS/R_calc_for_Farwater/Data/Средние показатели облия каменистая литораль.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Каменистая литораль" sheetId="1" r:id="rId1"/>
     <sheet name="Зостерники" sheetId="2" r:id="rId2"/>
+    <sheet name="Пояс фукоидов" sheetId="3" r:id="rId3"/>
+    <sheet name="Илисто-песч. пляж" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
   <si>
     <t>Вид</t>
   </si>
@@ -94,25 +96,151 @@
   </si>
   <si>
     <t>Alitta virens</t>
+  </si>
+  <si>
+    <t>valid_name</t>
+  </si>
+  <si>
+    <t>Mean_N</t>
+  </si>
+  <si>
+    <t>SE_N</t>
+  </si>
+  <si>
+    <t>Mean_B</t>
+  </si>
+  <si>
+    <t>SE_B</t>
+  </si>
+  <si>
+    <t>Mytilus edulis</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>Jaera (Jaera) albifrons</t>
+  </si>
+  <si>
+    <t>Tubificoides benedii</t>
+  </si>
+  <si>
+    <t>Baltidrilus costatus</t>
+  </si>
+  <si>
+    <t>Pygospio elegans</t>
+  </si>
+  <si>
+    <t>Halocladius vitripennis</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Dipolydora quadrilobata</t>
+  </si>
+  <si>
+    <t>Enchytraeidae</t>
+  </si>
+  <si>
+    <t>Eteone longa</t>
+  </si>
+  <si>
+    <t>Fabricia stellaris</t>
+  </si>
+  <si>
+    <t>Lineus sp.</t>
+  </si>
+  <si>
+    <t>Amauropsis islandica</t>
+  </si>
+  <si>
+    <t>Cladophora fracta</t>
+  </si>
+  <si>
+    <t>Cladophora rupestris</t>
+  </si>
+  <si>
+    <t>Cladophora sericea</t>
+  </si>
+  <si>
+    <t>Desmarestia aculeata</t>
+  </si>
+  <si>
+    <t>Dictyosiphon foeniculaceus</t>
+  </si>
+  <si>
+    <t>Elachista</t>
+  </si>
+  <si>
+    <t>Eleocharis</t>
+  </si>
+  <si>
+    <t>Spio theeli</t>
+  </si>
+  <si>
+    <t>Scoloplos armiger</t>
+  </si>
+  <si>
+    <t>Monoculodes sp.</t>
+  </si>
+  <si>
+    <t>Gammaridae</t>
+  </si>
+  <si>
+    <t>Halicryptus spinulosus</t>
+  </si>
+  <si>
+    <t>Paranais litoralis</t>
+  </si>
+  <si>
+    <t>Jaera sp.</t>
+  </si>
+  <si>
+    <t>Capitella capitata</t>
+  </si>
+  <si>
+    <t>Clitellio (Clitellio) arenarius</t>
+  </si>
+  <si>
+    <t>Littorina sp.</t>
+  </si>
+  <si>
+    <t>Chlorophyta нитчатые</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -579,139 +707,181 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1382,7 +1552,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1518,4 +1688,1305 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.33333333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.77777777777778" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778" style="6"/>
+    <col min="6" max="6" width="2.88888888888889" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.11111111111111" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9">
+        <v>21969.9665909091</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1773.2405125407</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1883.72477272727</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12">
+        <v>103.727162267149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
+        <v>11070.2105909091</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11">
+        <v>583.583447295229</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45.3830909090909</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2.05879136654735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3646.77268181818</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11">
+        <v>181.386553405588</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.06690909090909</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.115644629041344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3008.25754545455</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11">
+        <v>94.1089646864982</v>
+      </c>
+      <c r="E5" s="12">
+        <v>65.7397727272727</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.63596320124109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1816.65379545455</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11">
+        <v>108.034933240349</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.73777272727273</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.168886126170585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1308.39545454545</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11">
+        <v>54.1119486102543</v>
+      </c>
+      <c r="E7" s="12">
+        <v>140.492</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4.89483366277002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1098.07272727273</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11">
+        <v>40.7732483603215</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7.57222727272727</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.236772262472261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>364.818227272727</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11">
+        <v>29.5794872154231</v>
+      </c>
+      <c r="E9" s="12">
+        <v>29.5742272727273</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2.29502834716952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>360.962045454545</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11">
+        <v>42.7200073708438</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.374818181818182</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.0450786396612836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9">
+        <v>359.089409090909</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11">
+        <v>58.9560737358104</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.556272727272727</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.100335749997847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9">
+        <v>318.847</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11">
+        <v>21.7974831117152</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.274954545454545</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.0195887443550088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
+        <v>154.850045454545</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11">
+        <v>13.4484797943832</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.131477272727273</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.0102222074473654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9">
+        <v>141.774227272727</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11">
+        <v>19.3197367988278</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.80736363636364</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.210620339706596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="9">
+        <v>119.087909090909</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11">
+        <v>23.2052578717139</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.0416818181818182</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.00717865822261668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9">
+        <v>114.727272727273</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11">
+        <v>24.45993673098</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.0446363636363636</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.00951650470278225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9">
+        <v>81.3181818181818</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15.6135001112705</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.392227272727273</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.0633873373162038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9">
+        <v>60.5303181818182</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4.23877076890501</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.0986818181818182</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.00756586435877638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9">
+        <v>54.9212272727273</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4.29050451347071</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.0247272727272727</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.00187750524320149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="9">
+        <v>37.7424090909091</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11">
+        <v>8.04670865516832</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.419272727272727</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.0893892458029159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
+        <v>29.7727272727273</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5.91935262335092</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3.78313636363636</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.738735030146091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3.96968181818182</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.846339007340206</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.86054545454545</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.823071056432487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>4710.15281818182</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="12">
+        <v>184.952113656076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <v>101.545454545455</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="12">
+        <v>16.6437764531591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>23.9565909090909</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4.84915648506204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>81.1951818181818</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="12">
+        <v>6.81848600761029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>6.27213636363636</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1.33722396580735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <v>73.6294090909091</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="12">
+        <v>14.4136194521455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>2.10645454545455</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.407037733381748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>4.95454545454545</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1.05631264012552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
+        <v>17.7763636363636</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="12">
+        <v>3.39921438893362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
+        <v>3249.95731818182</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="12">
+        <v>87.8553456754417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
+        <v>5.70563636363636</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.909034491706694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" style="1"/>
+    <col min="3" max="3" width="3.44444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.55555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1"/>
+    <col min="6" max="6" width="3.77777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.55555555555556" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:7">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25692.3333333333</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1079.7564501537</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.42766666666667</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.150622220727575</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13053.4444444444</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>561.634578585423</v>
+      </c>
+      <c r="E3" s="4">
+        <v>27.2393333333333</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.726279739484364</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3852.33333333333</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>255.281263000098</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.35788888888889</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.301712657870011</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3700.66666666667</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>62.7138259488417</v>
+      </c>
+      <c r="E5" s="4">
+        <v>189.138444444444</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7.34865613901368</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3437.77777777778</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>150.80732097411</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.40544444444444</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0674098855753613</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2366</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>197.893540329857</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.93122222222222</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.113768906280009</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2">
+        <v>606.666666666667</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>32.3481200606727</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12.5478888888889</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.08129936123242</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>576.333333333333</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19.0744537475168</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.93122222222222</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.11243964661345</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>182</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17.6838203399475</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.151666666666667</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.0167224882179787</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2">
+        <v>161.777777777778</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>16.2256191666276</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.0808888888888889</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.0071262321078895</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>151.666666666667</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>28.4403911021301</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.262888888888889</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.0432082192855756</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>131.444444444444</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10.2912422353843</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.53988888888889</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.362650543647566</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>121.333333333333</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10.4042474986455</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.17388888888889</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.343856002676903</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>111.222222222222</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
+        <v>13.493866859823</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.101111111111111</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.0116179325880829</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:7">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>101.111111111111</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16.7124956935023</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.0404444444444444</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.00432545883412571</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:7">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>70.7777777777778</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.8618369732451</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15.2172222222222</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.57412132325096</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:7">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50.5555555555556</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.60258389316808</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.0707777777777778</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.0104842198321374</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.87743411028393</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.0404444444444444</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.00554411312559464</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7.14963523199731</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.0202222222222222</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.00476642348799821</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.87743411028393</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.0303333333333333</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.00387743411028393</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7.14963523199731</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.35488888888889</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.31935037369588</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2">
+        <v>30.3333333333333</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.20212374932277</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.980777777777778</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.200763904736407</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.1111111111111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.3832117439991</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.343777777777778</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.0810291992959696</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:7">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="E25" s="4">
+        <v>3.08388888888889</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.602473633063116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>